--- a/medicine/Médecine vétérinaire/Romifidine/Romifidine.xlsx
+++ b/medicine/Médecine vétérinaire/Romifidine/Romifidine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La romifidine est un α2-agoniste utilisé en anesthésiologie vétérinaire, surtout en prémédication. Elle est utilisée principalement chez le grandes espèces, comme le cheval[2].
+La romifidine est un α2-agoniste utilisé en anesthésiologie vétérinaire, surtout en prémédication. Elle est utilisée principalement chez le grandes espèces, comme le cheval.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La romifidine agit sur les récepteurs adrénergiques α2 localisés dans le système nerveux central et le cœur. Elle diminue la libération de noradrénaline et provoque une inhibition du système nerveux sympathique. Ainsi, la romifidine est responsable d'une diminution de la vigilance, de la nociception et du tonus musculaire.
 À l'étage cardiaque, elle provoque une bradycardie : la fréquence cardiaque diminue de 40 à 50 % par rapport aux valeurs habituelles.
@@ -545,11 +559,13 @@
           <t>Utilisation, posologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La romifidine possède une activité sympatholytique. Elle est utilisée en médecine vétérinaire comme sédatif, analgésique et myorelaxant.
 En anesthésiologie, elle est indiquée pour la prémédication et la sédanalgésie. Elle potentialise la narcose et la myorelaxation des anesthésiques halogénés volatils : halothane, isoflurane…
-Chez le chien, la romifidine est utilisée à la dose de 40  à   120 μg·kg-1[3] par voie intramusculaire, intraveineuse ou sous-cutanée, tandis que, chez le chat, la dose est de 200  à   400 μg·kg-1[4] par voie intraveineuse, intramusculaire et sous-cutanée. Elle agit en 10 minutes par voie intraveineuse et en 10 à 15 minutes par voie intramusculaire.
+Chez le chien, la romifidine est utilisée à la dose de 40  à   120 μg·kg-1 par voie intramusculaire, intraveineuse ou sous-cutanée, tandis que, chez le chat, la dose est de 200  à   400 μg·kg-1 par voie intraveineuse, intramusculaire et sous-cutanée. Elle agit en 10 minutes par voie intraveineuse et en 10 à 15 minutes par voie intramusculaire.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La romifidine provoque une dépression cardio-respiratoire[5] importante à l'origine d'une bradycardie sinusale et d'une bradypnée dose-dépendantes. Elle induit également une hypotension et des dysthermies.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La romifidine provoque une dépression cardio-respiratoire importante à l'origine d'une bradycardie sinusale et d'une bradypnée dose-dépendantes. Elle induit également une hypotension et des dysthermies.
 Elle diminue les contractions des muscles lisses : elle freine ainsi la motricité gastro-intestinale.
 </t>
         </is>
@@ -612,48 +630,56 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Contre-indications relatives
-Hyperkaliémie
-Insuffisance rénale
-Contre-indications absolues
-Insuffisance cardiaque
+          <t>Contre-indications relatives</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hyperkaliémie
+Insuffisance rénale</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Romifidine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Romifidine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Contre-indications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Contre-indications absolues</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Insuffisance cardiaque
 États de choc
 Insuffisance hépato-cellulaire grave
 Obstacles mécaniques au péristaltisme</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Romifidine</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine vétérinaire/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Romifidine</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Interactions médicamenteuses</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'acépromazine peut potentialiser l'hypotension provoquée par la romifidine. L'administration concomitante de sulfonamides potentialisés avec du triméthoprime peut induire des arythmies fatales.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
@@ -675,12 +701,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Antagonisation</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La romifidine est antagonisée par des α2-antagonistes, comme l'atipamézole et la yohimbine.
+          <t>Interactions médicamenteuses</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'acépromazine peut potentialiser l'hypotension provoquée par la romifidine. L'administration concomitante de sulfonamides potentialisés avec du triméthoprime peut induire des arythmies fatales.
 </t>
         </is>
       </c>
@@ -706,10 +734,45 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Antagonisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La romifidine est antagonisée par des α2-antagonistes, comme l'atipamézole et la yohimbine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Romifidine</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine vétérinaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Romifidine</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Médicaments vétérinaires disponibles en France</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Romydis (romifidine)
 Antisédan (atipamézole)</t>
